--- a/vc-importer/Book1.xlsx
+++ b/vc-importer/Book1.xlsx
@@ -347,10 +347,10 @@
         <v>31045</v>
       </c>
       <c r="C2">
-        <v>1331851045</v>
+        <v>1767212437</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -361,10 +361,10 @@
         <v>31045</v>
       </c>
       <c r="C3">
-        <v>1769057773</v>
+        <v>1767374516</v>
       </c>
       <c r="D3">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -375,10 +375,10 @@
         <v>31045</v>
       </c>
       <c r="C4">
-        <v>1769057846</v>
+        <v>1767375143</v>
       </c>
       <c r="D4">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -389,10 +389,10 @@
         <v>31045</v>
       </c>
       <c r="C5">
-        <v>1766719726</v>
+        <v>1768994945</v>
       </c>
       <c r="D5">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
@@ -403,10 +403,10 @@
         <v>31045</v>
       </c>
       <c r="C6">
-        <v>1767374417</v>
+        <v>1767279989</v>
       </c>
       <c r="D6">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
@@ -417,10 +417,10 @@
         <v>31045</v>
       </c>
       <c r="C7">
-        <v>1767212130</v>
+        <v>1768995097</v>
       </c>
       <c r="D7">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
@@ -431,234 +431,10 @@
         <v>31045</v>
       </c>
       <c r="C8">
-        <v>1767212432</v>
+        <v>1331850904</v>
       </c>
       <c r="D8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>31045</v>
-      </c>
-      <c r="C9">
-        <v>1767212139</v>
-      </c>
-      <c r="D9">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>31045</v>
-      </c>
-      <c r="C10">
-        <v>1767373434</v>
-      </c>
-      <c r="D10">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>31045</v>
-      </c>
-      <c r="C11">
-        <v>1767194916</v>
-      </c>
-      <c r="D11">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>31045</v>
-      </c>
-      <c r="C12">
-        <v>1768995150</v>
-      </c>
-      <c r="D12">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>31045</v>
-      </c>
-      <c r="C13">
-        <v>1767280991</v>
-      </c>
-      <c r="D13">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>31045</v>
-      </c>
-      <c r="C14">
-        <v>1767194914</v>
-      </c>
-      <c r="D14">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>31045</v>
-      </c>
-      <c r="C15">
-        <v>1768995152</v>
-      </c>
-      <c r="D15">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>31045</v>
-      </c>
-      <c r="C16">
-        <v>1767374511</v>
-      </c>
-      <c r="D16">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>31045</v>
-      </c>
-      <c r="C17">
-        <v>1767279980</v>
-      </c>
-      <c r="D17">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>31045</v>
-      </c>
-      <c r="C18">
-        <v>1766719721</v>
-      </c>
-      <c r="D18">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>31045</v>
-      </c>
-      <c r="C19">
-        <v>1767375142</v>
-      </c>
-      <c r="D19">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>31045</v>
-      </c>
-      <c r="C20">
-        <v>1767375140</v>
-      </c>
-      <c r="D20">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>31045</v>
-      </c>
-      <c r="C21">
-        <v>1767374513</v>
-      </c>
-      <c r="D21">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>31045</v>
-      </c>
-      <c r="C22">
-        <v>1767374518</v>
-      </c>
-      <c r="D22">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>31045</v>
-      </c>
-      <c r="C23">
-        <v>1767212284</v>
-      </c>
-      <c r="D23">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>31045</v>
-      </c>
-      <c r="C24">
-        <v>1767280996</v>
-      </c>
-      <c r="D24">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/vc-importer/Book1.xlsx
+++ b/vc-importer/Book1.xlsx
@@ -350,7 +350,7 @@
         <v>1767212437</v>
       </c>
       <c r="D2">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -364,7 +364,7 @@
         <v>1767374516</v>
       </c>
       <c r="D3">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
